--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1577,28 +1577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.4958435774689</v>
+        <v>127.887134313376</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.6075790970058</v>
+        <v>174.9808191496593</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.0927504955113</v>
+        <v>158.2808953571867</v>
       </c>
       <c r="AD2" t="n">
-        <v>103495.8435774689</v>
+        <v>127887.134313376</v>
       </c>
       <c r="AE2" t="n">
-        <v>141607.5790970058</v>
+        <v>174980.8191496593</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.975342075858007e-06</v>
+        <v>5.505161827824848e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>128092.7504955113</v>
+        <v>158280.8953571867</v>
       </c>
     </row>
     <row r="3">
@@ -1683,28 +1683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.63600635331645</v>
+        <v>109.1125484352441</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.8027177696372</v>
+        <v>149.2926024749399</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.7506689158682</v>
+        <v>135.0443260282559</v>
       </c>
       <c r="AD3" t="n">
-        <v>84636.00635331645</v>
+        <v>109112.5484352441</v>
       </c>
       <c r="AE3" t="n">
-        <v>115802.7177696372</v>
+        <v>149292.6024749399</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.31895242102711e-06</v>
+        <v>6.140930928534109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>104750.6689158682</v>
+        <v>135044.3260282559</v>
       </c>
     </row>
   </sheetData>
@@ -1980,28 +1980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.49586220296788</v>
+        <v>116.7016577465475</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.5062340097497</v>
+        <v>159.6763566425333</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.8642355358702</v>
+        <v>144.4370692717879</v>
       </c>
       <c r="AD2" t="n">
-        <v>81495.86220296788</v>
+        <v>116701.6577465475</v>
       </c>
       <c r="AE2" t="n">
-        <v>111506.2340097497</v>
+        <v>159676.3566425333</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.394944527718118e-06</v>
+        <v>6.471288219762898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.62890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>100864.2355358701</v>
+        <v>144437.0692717879</v>
       </c>
     </row>
     <row r="3">
@@ -2086,28 +2086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.69153410265493</v>
+        <v>104.3042992226607</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.4057168184506</v>
+        <v>142.7137437773024</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.86875016072273</v>
+        <v>129.0933443712326</v>
       </c>
       <c r="AD3" t="n">
-        <v>80691.53410265493</v>
+        <v>104304.2992226607</v>
       </c>
       <c r="AE3" t="n">
-        <v>110405.7168184506</v>
+        <v>142713.7437773024</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.465597081012639e-06</v>
+        <v>6.605962890320276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>99868.75016072273</v>
+        <v>129093.3443712326</v>
       </c>
     </row>
   </sheetData>
@@ -2383,28 +2383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.31673542583572</v>
+        <v>102.6217220448363</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.57870368190494</v>
+        <v>140.4115674525381</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.26592915509886</v>
+        <v>127.0108845237783</v>
       </c>
       <c r="AD2" t="n">
-        <v>71316.73542583572</v>
+        <v>102621.7220448363</v>
       </c>
       <c r="AE2" t="n">
-        <v>97578.70368190494</v>
+        <v>140411.5674525381</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.648182001683943e-06</v>
+        <v>7.769672923652212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.811197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>88265.92915509886</v>
+        <v>127010.8845237783</v>
       </c>
     </row>
   </sheetData>
@@ -2680,28 +2680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.34137479443817</v>
+        <v>96.37030774141019</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7171487036961</v>
+        <v>131.8581066096601</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.00940679235568</v>
+        <v>119.2737539788842</v>
       </c>
       <c r="AD2" t="n">
-        <v>74341.37479443816</v>
+        <v>96370.30774141019</v>
       </c>
       <c r="AE2" t="n">
-        <v>101717.1487036961</v>
+        <v>131858.1066096601</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.640453747199127e-06</v>
+        <v>7.391379726939607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>92009.40679235567</v>
+        <v>119273.7539788842</v>
       </c>
     </row>
   </sheetData>
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.5907009138318</v>
+        <v>99.68376701636954</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.8995082841709</v>
+        <v>136.3917277691637</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.50629205497719</v>
+        <v>123.3746926979034</v>
       </c>
       <c r="AD2" t="n">
-        <v>79590.7009138318</v>
+        <v>99683.76701636954</v>
       </c>
       <c r="AE2" t="n">
-        <v>108899.5082841709</v>
+        <v>136391.7277691636</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.543332403531764e-06</v>
+        <v>7.890309164661214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.143229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>98506.2920549772</v>
+        <v>123374.6926979034</v>
       </c>
     </row>
   </sheetData>
@@ -3274,28 +3274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.70568245105162</v>
+        <v>119.252032579255</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.5298075635652</v>
+        <v>163.1658920032388</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.5992434733225</v>
+        <v>147.5935682752624</v>
       </c>
       <c r="AD2" t="n">
-        <v>83705.68245105162</v>
+        <v>119252.032579255</v>
       </c>
       <c r="AE2" t="n">
-        <v>114529.8075635652</v>
+        <v>163165.8920032388</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.289787763897178e-06</v>
+        <v>6.220211181456719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.733072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>103599.2434733225</v>
+        <v>147593.5682752624</v>
       </c>
     </row>
     <row r="3">
@@ -3380,28 +3380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.91316861738761</v>
+        <v>105.7529701271426</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.0772110562182</v>
+        <v>144.6958792196633</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.3807193343951</v>
+        <v>130.8863075889197</v>
       </c>
       <c r="AD3" t="n">
-        <v>81913.16861738761</v>
+        <v>105752.9701271426</v>
       </c>
       <c r="AE3" t="n">
-        <v>112077.2110562182</v>
+        <v>144695.8792196633</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.409842355988074e-06</v>
+        <v>6.447206042433519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>101380.7193343951</v>
+        <v>130886.3075889197</v>
       </c>
     </row>
   </sheetData>
@@ -3677,28 +3677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.74896119880714</v>
+        <v>107.9771359526109</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.7478028711394</v>
+        <v>147.7390810253384</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.46450379013636</v>
+        <v>133.6390704854228</v>
       </c>
       <c r="AD2" t="n">
-        <v>78748.96119880714</v>
+        <v>107977.1359526109</v>
       </c>
       <c r="AE2" t="n">
-        <v>107747.8028711394</v>
+        <v>147739.0810253384</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.407703756950765e-06</v>
+        <v>7.812388320848126e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>97464.50379013637</v>
+        <v>133639.0704854228</v>
       </c>
     </row>
   </sheetData>
@@ -3974,28 +3974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.47773027335474</v>
+        <v>100.35365246124</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.0084486361859</v>
+        <v>137.308294588095</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.89115108216731</v>
+        <v>124.2037836660459</v>
       </c>
       <c r="AD2" t="n">
-        <v>77477.73027335474</v>
+        <v>100353.65246124</v>
       </c>
       <c r="AE2" t="n">
-        <v>106008.4486361859</v>
+        <v>137308.294588095</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.567628606678496e-06</v>
+        <v>6.992502764697326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.537760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95891.15108216731</v>
+        <v>124203.7836660459</v>
       </c>
     </row>
   </sheetData>
@@ -4271,28 +4271,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.93008204834381</v>
+        <v>103.3071774349243</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.3638645248489</v>
+        <v>141.3494377574135</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.92633078777317</v>
+        <v>127.8592458030659</v>
       </c>
       <c r="AD2" t="n">
-        <v>79930.0820483438</v>
+        <v>103307.1774349243</v>
       </c>
       <c r="AE2" t="n">
-        <v>109363.8645248489</v>
+        <v>141349.4377574135</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.471798837084674e-06</v>
+        <v>6.675238321500702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>98926.33078777317</v>
+        <v>127859.2458030659</v>
       </c>
     </row>
     <row r="3">
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.71125814485413</v>
+        <v>103.0883535314346</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.0644600062652</v>
+        <v>141.0500332388297</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.6555010162261</v>
+        <v>127.5884160315189</v>
       </c>
       <c r="AD3" t="n">
-        <v>79711.25814485413</v>
+        <v>103088.3535314346</v>
       </c>
       <c r="AE3" t="n">
-        <v>109064.4600062652</v>
+        <v>141050.0332388298</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.493493314048511e-06</v>
+        <v>6.716950359204914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.544270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>98655.5010162261</v>
+        <v>127588.4160315189</v>
       </c>
     </row>
   </sheetData>
@@ -4674,28 +4674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.33643471380736</v>
+        <v>124.5296601773439</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.8658071038359</v>
+        <v>170.3869749154375</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.3305441101031</v>
+        <v>154.1254811691767</v>
       </c>
       <c r="AD2" t="n">
-        <v>88336.43471380736</v>
+        <v>124529.6601773439</v>
       </c>
       <c r="AE2" t="n">
-        <v>120865.8071038359</v>
+        <v>170386.9749154375</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.092980663051695e-06</v>
+        <v>5.761988383741783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.954427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>109330.5441101031</v>
+        <v>154125.4811691767</v>
       </c>
     </row>
     <row r="3">
@@ -4780,28 +4780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.66140611136957</v>
+        <v>107.93245784468</v>
       </c>
       <c r="AB3" t="n">
-        <v>114.469226722278</v>
+        <v>147.6779504670084</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.5444443825021</v>
+        <v>133.5837741417825</v>
       </c>
       <c r="AD3" t="n">
-        <v>83661.40611136958</v>
+        <v>107932.45784468</v>
       </c>
       <c r="AE3" t="n">
-        <v>114469.226722278</v>
+        <v>147677.9504670084</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.356754206236053e-06</v>
+        <v>6.253378488414184e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.563802083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>103544.4443825021</v>
+        <v>133583.7741417825</v>
       </c>
     </row>
   </sheetData>
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.61332814748445</v>
+        <v>97.93963598027388</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4574913959547</v>
+        <v>134.005330739948</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.58365362065199</v>
+        <v>121.2160500518261</v>
       </c>
       <c r="AD2" t="n">
-        <v>75613.32814748446</v>
+        <v>97939.63598027387</v>
       </c>
       <c r="AE2" t="n">
-        <v>103457.4913959547</v>
+        <v>134005.330739948</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606778932063248e-06</v>
+        <v>7.229778829261958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.596354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93583.65362065198</v>
+        <v>121216.0500518261</v>
       </c>
     </row>
   </sheetData>
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.33513269911664</v>
+        <v>104.1855388651607</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.97211975972398</v>
+        <v>142.5512506168338</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.52635955812305</v>
+        <v>128.9463593299385</v>
       </c>
       <c r="AD2" t="n">
-        <v>72335.13269911664</v>
+        <v>104185.5388651607</v>
       </c>
       <c r="AE2" t="n">
-        <v>98972.11975972398</v>
+        <v>142551.2506168338</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.659415404537424e-06</v>
+        <v>7.655725878508897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.720052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>89526.35955812305</v>
+        <v>128946.3593299385</v>
       </c>
     </row>
   </sheetData>
@@ -8588,28 +8588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>70.3749275047706</v>
+        <v>101.0857422588805</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.29008053467123</v>
+        <v>138.3099721467487</v>
       </c>
       <c r="AC2" t="n">
-        <v>87.1002903924428</v>
+        <v>125.1098625243653</v>
       </c>
       <c r="AD2" t="n">
-        <v>70374.9275047706</v>
+        <v>101085.7422588805</v>
       </c>
       <c r="AE2" t="n">
-        <v>96290.08053467123</v>
+        <v>138309.9721467487</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.609464132514725e-06</v>
+        <v>7.84645443055839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>87100.2903924428</v>
+        <v>125109.8625243653</v>
       </c>
     </row>
   </sheetData>
@@ -8885,28 +8885,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.00910666327081</v>
+        <v>116.4609873403716</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.4179424243976</v>
+        <v>159.3470607751746</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.9254230070882</v>
+        <v>144.1392009398402</v>
       </c>
       <c r="AD2" t="n">
-        <v>88009.10666327081</v>
+        <v>116460.9873403716</v>
       </c>
       <c r="AE2" t="n">
-        <v>120417.9424243976</v>
+        <v>159347.0607751746</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.155254680923226e-06</v>
+        <v>7.504858335358264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.07421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>108925.4230070882</v>
+        <v>144139.2009398402</v>
       </c>
     </row>
   </sheetData>
@@ -9182,28 +9182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.58549310828938</v>
+        <v>101.7173465651679</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.5241386179899</v>
+        <v>139.174161023026</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.26218573939266</v>
+        <v>125.8915744271876</v>
       </c>
       <c r="AD2" t="n">
-        <v>78585.49310828939</v>
+        <v>101717.3465651679</v>
       </c>
       <c r="AE2" t="n">
-        <v>107524.1386179899</v>
+        <v>139174.161023026</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522607543296977e-06</v>
+        <v>6.835895388023663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>97262.18573939266</v>
+        <v>125891.5744271876</v>
       </c>
     </row>
     <row r="3">
@@ -9288,28 +9288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.71024260791108</v>
+        <v>101.8420960647896</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.6948263869317</v>
+        <v>139.3448487919678</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.41658330722852</v>
+        <v>126.0459719950235</v>
       </c>
       <c r="AD3" t="n">
-        <v>78710.24260791109</v>
+        <v>101842.0960647896</v>
       </c>
       <c r="AE3" t="n">
-        <v>107694.8263869317</v>
+        <v>139344.8487919678</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.523444594654725e-06</v>
+        <v>6.837519751636595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>97416.58330722852</v>
+        <v>126045.9719950235</v>
       </c>
     </row>
   </sheetData>
@@ -9585,28 +9585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.30478876628183</v>
+        <v>122.1799400240832</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.0860194885394</v>
+        <v>167.1719841394107</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.8160555233532</v>
+        <v>151.217324600545</v>
       </c>
       <c r="AD2" t="n">
-        <v>86304.78876628182</v>
+        <v>122179.9400240831</v>
       </c>
       <c r="AE2" t="n">
-        <v>118086.0194885394</v>
+        <v>167171.9841394107</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.17410258793865e-06</v>
+        <v>5.955861430832268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.86328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>106816.0555233532</v>
+        <v>151217.324600545</v>
       </c>
     </row>
     <row r="3">
@@ -9691,28 +9691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.85257439305711</v>
+        <v>106.9115766558773</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.3625474821464</v>
+        <v>146.2811357863899</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.5433850558142</v>
+        <v>132.3202694938401</v>
       </c>
       <c r="AD3" t="n">
-        <v>82852.5743930571</v>
+        <v>106911.5766558773</v>
       </c>
       <c r="AE3" t="n">
-        <v>113362.5474821464</v>
+        <v>146281.1357863899</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.373596052981747e-06</v>
+        <v>6.330189418424151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.576822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>102543.3850558142</v>
+        <v>132320.2694938401</v>
       </c>
     </row>
   </sheetData>
@@ -9988,28 +9988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.83520457537374</v>
+        <v>134.3053842277146</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.8624430845753</v>
+        <v>183.7625518356552</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.086799393738</v>
+        <v>166.2245118008732</v>
       </c>
       <c r="AD2" t="n">
-        <v>97835.20457537373</v>
+        <v>134305.3842277146</v>
       </c>
       <c r="AE2" t="n">
-        <v>133862.4430845753</v>
+        <v>183762.5518356552</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.673603210842474e-06</v>
+        <v>6.686478731821498e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>121086.799393738</v>
+        <v>166224.5118008732</v>
       </c>
     </row>
   </sheetData>
@@ -10285,28 +10285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.47528826322313</v>
+        <v>105.8317883316798</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.5321309026472</v>
+        <v>144.8037217643248</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.93748542705556</v>
+        <v>130.9838577924768</v>
       </c>
       <c r="AD2" t="n">
-        <v>73475.28826322313</v>
+        <v>105831.7883316798</v>
       </c>
       <c r="AE2" t="n">
-        <v>100532.1309026472</v>
+        <v>144803.7217643248</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.645189964296913e-06</v>
+        <v>7.506479395178627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.66796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>90937.48542705557</v>
+        <v>130983.8577924768</v>
       </c>
     </row>
   </sheetData>
@@ -10582,28 +10582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.59311432165462</v>
+        <v>99.20106983377306</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.798078064569</v>
+        <v>135.7312801888387</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.79629657913938</v>
+        <v>122.7772773077005</v>
       </c>
       <c r="AD2" t="n">
-        <v>76593.11432165462</v>
+        <v>99201.06983377306</v>
       </c>
       <c r="AE2" t="n">
-        <v>104798.078064569</v>
+        <v>135731.2801888387</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.584273969383711e-06</v>
+        <v>7.101106640419778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.5703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>94796.29657913938</v>
+        <v>122777.2773077005</v>
       </c>
     </row>
   </sheetData>
